--- a/data/pca/factorExposure/factorExposure_2018-08-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-08-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.03970666683287667</v>
+        <v>0.03004331166871281</v>
       </c>
       <c r="C2">
-        <v>0.03951618740042835</v>
+        <v>-0.01525320219257402</v>
       </c>
       <c r="D2">
-        <v>-0.03772635448105967</v>
+        <v>0.01545115425820055</v>
       </c>
       <c r="E2">
-        <v>-0.0503037176310417</v>
+        <v>-0.01466322665977869</v>
       </c>
       <c r="F2">
-        <v>-0.1429028794235026</v>
+        <v>-0.02062074898958194</v>
       </c>
       <c r="G2">
-        <v>-0.05335514167897465</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.08459034596239347</v>
+      </c>
+      <c r="H2">
+        <v>-0.01871117565963009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.1280071805644745</v>
+        <v>0.08310696764145195</v>
       </c>
       <c r="C3">
-        <v>-0.005139762657439317</v>
+        <v>0.01345935770237135</v>
       </c>
       <c r="D3">
-        <v>-0.02583469601483736</v>
+        <v>0.01929400743641475</v>
       </c>
       <c r="E3">
-        <v>-0.08637059044867341</v>
+        <v>-0.006164286164337503</v>
       </c>
       <c r="F3">
-        <v>-0.3878368863980382</v>
+        <v>0.02237015366239068</v>
       </c>
       <c r="G3">
-        <v>-0.1695098362447637</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.2688462734213032</v>
+      </c>
+      <c r="H3">
+        <v>-0.0354398534588539</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05486699888907103</v>
+        <v>0.04967155936772163</v>
       </c>
       <c r="C4">
-        <v>0.03393159473583065</v>
+        <v>-0.00369716527527245</v>
       </c>
       <c r="D4">
-        <v>0.001331668820372166</v>
+        <v>0.03440842719280617</v>
       </c>
       <c r="E4">
-        <v>-0.06499576796282899</v>
+        <v>0.02054985546866846</v>
       </c>
       <c r="F4">
-        <v>-0.07121071994320347</v>
+        <v>-0.05381645255027086</v>
       </c>
       <c r="G4">
-        <v>-0.04823149020806075</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.05391220168564172</v>
+      </c>
+      <c r="H4">
+        <v>-0.02681413660924369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.01306134129644927</v>
+        <v>0.0263151693301839</v>
       </c>
       <c r="C6">
-        <v>-0.003575383682733857</v>
+        <v>-0.004649746701126486</v>
       </c>
       <c r="D6">
-        <v>-0.0146566538371801</v>
+        <v>0.04763179573289959</v>
       </c>
       <c r="E6">
-        <v>-0.02221510963859117</v>
+        <v>0.006768853361630188</v>
       </c>
       <c r="F6">
-        <v>-0.01231891530451846</v>
+        <v>-0.03805484820365659</v>
       </c>
       <c r="G6">
-        <v>0.003134368069925295</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01641687105411283</v>
+      </c>
+      <c r="H6">
+        <v>-0.04995126723162219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02797242296794127</v>
+        <v>0.02155412760639864</v>
       </c>
       <c r="C7">
-        <v>0.01289048839312285</v>
+        <v>-0.002807301454124603</v>
       </c>
       <c r="D7">
-        <v>-0.03382013668577208</v>
+        <v>0.01939164616554176</v>
       </c>
       <c r="E7">
-        <v>-0.03662153258724835</v>
+        <v>0.03516350050054855</v>
       </c>
       <c r="F7">
-        <v>-0.06102053654046681</v>
+        <v>-0.01818892173091623</v>
       </c>
       <c r="G7">
-        <v>-0.05682836432244007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.04036844408746663</v>
+      </c>
+      <c r="H7">
+        <v>-0.01529302554724229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01889704773607925</v>
+        <v>0.007335687875685873</v>
       </c>
       <c r="C8">
-        <v>0.01245883158358353</v>
+        <v>0.002664506083759216</v>
       </c>
       <c r="D8">
-        <v>0.003351178335513735</v>
+        <v>0.009329346415825369</v>
       </c>
       <c r="E8">
-        <v>-0.07111883748019091</v>
+        <v>0.01140712264289607</v>
       </c>
       <c r="F8">
-        <v>-0.08475752226712376</v>
+        <v>-0.0253434227397316</v>
       </c>
       <c r="G8">
-        <v>-0.06741023449395497</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.05807134694568384</v>
+      </c>
+      <c r="H8">
+        <v>-0.006933808998524512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.04561750618151638</v>
+        <v>0.04142841503918303</v>
       </c>
       <c r="C9">
-        <v>0.02648073716444222</v>
+        <v>0.0007644921653776694</v>
       </c>
       <c r="D9">
-        <v>0.01244106433033101</v>
+        <v>0.0284086186191641</v>
       </c>
       <c r="E9">
-        <v>-0.07008097531906884</v>
+        <v>0.01850025258255858</v>
       </c>
       <c r="F9">
-        <v>-0.06486783870439135</v>
+        <v>-0.03204138957645163</v>
       </c>
       <c r="G9">
-        <v>-0.05026567219952036</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.06304407665178567</v>
+      </c>
+      <c r="H9">
+        <v>-0.02485152191286738</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.04773453114783992</v>
+        <v>0.09973659858097718</v>
       </c>
       <c r="C10">
-        <v>0.04404964311428529</v>
+        <v>0.03248553031581765</v>
       </c>
       <c r="D10">
-        <v>0.02748522324418533</v>
+        <v>-0.1468941368278513</v>
       </c>
       <c r="E10">
-        <v>0.1113738795305953</v>
+        <v>-0.0176179833412539</v>
       </c>
       <c r="F10">
-        <v>-0.07660716121446431</v>
+        <v>0.06415534930886437</v>
       </c>
       <c r="G10">
-        <v>0.03874326289103561</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02231864105238101</v>
+      </c>
+      <c r="H10">
+        <v>-0.003921129002411614</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03454772943676066</v>
+        <v>0.02255980456776187</v>
       </c>
       <c r="C11">
-        <v>0.00963449132942416</v>
+        <v>0.008065174704165682</v>
       </c>
       <c r="D11">
-        <v>-0.0190719831409107</v>
+        <v>0.03428208850596803</v>
       </c>
       <c r="E11">
-        <v>-0.03702246653543636</v>
+        <v>-0.003366661764146735</v>
       </c>
       <c r="F11">
-        <v>-0.03330329407496055</v>
+        <v>-0.01916845630477355</v>
       </c>
       <c r="G11">
-        <v>-0.02167753862775587</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.03711104552498251</v>
+      </c>
+      <c r="H11">
+        <v>-0.02763804565854147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04216337957319007</v>
+        <v>0.03144793441586206</v>
       </c>
       <c r="C12">
-        <v>0.01023988707262771</v>
+        <v>0.006515646085641018</v>
       </c>
       <c r="D12">
-        <v>-0.006222341816272407</v>
+        <v>0.03438908652920392</v>
       </c>
       <c r="E12">
-        <v>-0.04644880750733382</v>
+        <v>0.007988591421980121</v>
       </c>
       <c r="F12">
-        <v>-0.01463192971444098</v>
+        <v>-0.0232386507680762</v>
       </c>
       <c r="G12">
-        <v>-0.01787407550500993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.01477539380995889</v>
+      </c>
+      <c r="H12">
+        <v>-0.01437317735524087</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.02221854572923533</v>
+        <v>0.02747614602528339</v>
       </c>
       <c r="C13">
-        <v>0.02107582127497236</v>
+        <v>-0.01313697689807646</v>
       </c>
       <c r="D13">
-        <v>-0.03304509432389176</v>
+        <v>0.002842692753726078</v>
       </c>
       <c r="E13">
-        <v>-0.01711045943703206</v>
+        <v>-0.01782062736097887</v>
       </c>
       <c r="F13">
-        <v>-0.08952290552952581</v>
+        <v>-0.01672127926629551</v>
       </c>
       <c r="G13">
-        <v>-0.03487521273506557</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.07141819980274865</v>
+      </c>
+      <c r="H13">
+        <v>-0.02554826079725576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01372731229428</v>
+        <v>0.01768804265480733</v>
       </c>
       <c r="C14">
-        <v>0.01379018322236403</v>
+        <v>-0.0001481115151950628</v>
       </c>
       <c r="D14">
-        <v>-0.005812277156201983</v>
+        <v>0.003299952408186919</v>
       </c>
       <c r="E14">
-        <v>-0.04039558261923811</v>
+        <v>0.008300448902403461</v>
       </c>
       <c r="F14">
-        <v>-0.06135589893198696</v>
+        <v>-0.02003235691804371</v>
       </c>
       <c r="G14">
-        <v>-0.06622556938764644</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04717265981724293</v>
+      </c>
+      <c r="H14">
+        <v>0.01796741052879832</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02578124683768301</v>
+        <v>0.02393079918271466</v>
       </c>
       <c r="C16">
-        <v>0.01085279397828918</v>
+        <v>0.008632236391114245</v>
       </c>
       <c r="D16">
-        <v>-0.01670249155874498</v>
+        <v>0.03001501454335153</v>
       </c>
       <c r="E16">
-        <v>-0.03575995695497056</v>
+        <v>0.00138973148143651</v>
       </c>
       <c r="F16">
-        <v>-0.03905074095441498</v>
+        <v>-0.02158575734817164</v>
       </c>
       <c r="G16">
-        <v>-0.02466771776281949</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.03313597600099055</v>
+      </c>
+      <c r="H16">
+        <v>-0.02146970802723487</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.04233398592176513</v>
+        <v>0.03514344875591544</v>
       </c>
       <c r="C19">
-        <v>0.005302846747993999</v>
+        <v>5.6755124245668e-05</v>
       </c>
       <c r="D19">
-        <v>-0.01717535404050994</v>
+        <v>0.01457744834353464</v>
       </c>
       <c r="E19">
-        <v>-0.05048052448265413</v>
+        <v>-0.0004811081636099178</v>
       </c>
       <c r="F19">
-        <v>-0.09832772991456636</v>
+        <v>-0.0251656476118563</v>
       </c>
       <c r="G19">
-        <v>-0.04707289567557347</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.07479309357758833</v>
+      </c>
+      <c r="H19">
+        <v>-0.03536077445350055</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0004107958170528524</v>
+        <v>0.01090294902216412</v>
       </c>
       <c r="C20">
-        <v>0.02203853386513083</v>
+        <v>-0.0060590622498088</v>
       </c>
       <c r="D20">
-        <v>-0.009697382850310644</v>
+        <v>0.002198604209873483</v>
       </c>
       <c r="E20">
-        <v>-0.03708305269977162</v>
+        <v>0.0003912822425534084</v>
       </c>
       <c r="F20">
-        <v>-0.06201229828785652</v>
+        <v>-0.01601278239385146</v>
       </c>
       <c r="G20">
-        <v>-0.06827891087859822</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.05325073253842499</v>
+      </c>
+      <c r="H20">
+        <v>0.01013345278468397</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.001818342353401823</v>
+        <v>0.02239296495720505</v>
       </c>
       <c r="C21">
-        <v>-0.006261420216644779</v>
+        <v>-0.00580285489230893</v>
       </c>
       <c r="D21">
-        <v>-0.006422066186919539</v>
+        <v>0.005300549264296792</v>
       </c>
       <c r="E21">
-        <v>-0.04669727124273833</v>
+        <v>0.01172466236831854</v>
       </c>
       <c r="F21">
-        <v>-0.06040894448981412</v>
+        <v>-0.008053294597305267</v>
       </c>
       <c r="G21">
-        <v>-0.03037184890313612</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.05750191519208003</v>
+      </c>
+      <c r="H21">
+        <v>-0.008518117611716922</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03333658947079386</v>
+        <v>0.02231396733246904</v>
       </c>
       <c r="C24">
-        <v>0.01443712584612904</v>
+        <v>0.003214908792523786</v>
       </c>
       <c r="D24">
-        <v>-0.01316061117384382</v>
+        <v>0.03074516759521237</v>
       </c>
       <c r="E24">
-        <v>-0.02359497643275334</v>
+        <v>0.001432352529157959</v>
       </c>
       <c r="F24">
-        <v>-0.03191810216286581</v>
+        <v>-0.0171970178784619</v>
       </c>
       <c r="G24">
-        <v>-0.01996425209544957</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.03095693052429272</v>
+      </c>
+      <c r="H24">
+        <v>-0.0262410787450718</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03161647658153971</v>
+        <v>0.03293045309119855</v>
       </c>
       <c r="C25">
-        <v>0.008290266386890399</v>
+        <v>0.001623242750567216</v>
       </c>
       <c r="D25">
-        <v>-0.009512224299382433</v>
+        <v>0.02782579367144779</v>
       </c>
       <c r="E25">
-        <v>-0.04217789217189077</v>
+        <v>0.002497338659310437</v>
       </c>
       <c r="F25">
-        <v>-0.03201106302482028</v>
+        <v>-0.02249566159966867</v>
       </c>
       <c r="G25">
-        <v>-0.006401967265820182</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.0351206512344694</v>
+      </c>
+      <c r="H25">
+        <v>-0.0284650457752409</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02086506840288272</v>
+        <v>0.02001181039676</v>
       </c>
       <c r="C26">
-        <v>-0.006628064039249503</v>
+        <v>-0.01735474326916953</v>
       </c>
       <c r="D26">
-        <v>-0.03552124218707328</v>
+        <v>0.004561974529387159</v>
       </c>
       <c r="E26">
-        <v>-0.04029998533779882</v>
+        <v>-0.007083354054740325</v>
       </c>
       <c r="F26">
-        <v>-0.05794964869762812</v>
+        <v>-0.003335677699396753</v>
       </c>
       <c r="G26">
-        <v>-0.03238732270253733</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03873770584802936</v>
+      </c>
+      <c r="H26">
+        <v>0.003184281053497265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.07662133519148309</v>
+        <v>0.03093845580259967</v>
       </c>
       <c r="C27">
-        <v>0.04656342587270598</v>
+        <v>0.0116925378335377</v>
       </c>
       <c r="D27">
-        <v>-8.15594337924444e-05</v>
+        <v>0.01320273011867121</v>
       </c>
       <c r="E27">
-        <v>-0.05416736596838762</v>
+        <v>0.006537873606877173</v>
       </c>
       <c r="F27">
-        <v>-0.05116279998716895</v>
+        <v>-0.02464136043462218</v>
       </c>
       <c r="G27">
-        <v>-0.0535153967679314</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.02841480725898076</v>
+      </c>
+      <c r="H27">
+        <v>0.002315532878662161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.07105397772415881</v>
+        <v>0.1502373735444865</v>
       </c>
       <c r="C28">
-        <v>0.0626655362818698</v>
+        <v>0.03548422513811048</v>
       </c>
       <c r="D28">
-        <v>0.05536684283790465</v>
+        <v>-0.2172322359676797</v>
       </c>
       <c r="E28">
-        <v>0.1686213864075056</v>
+        <v>-0.01991000894894749</v>
       </c>
       <c r="F28">
-        <v>-0.09516766834412829</v>
+        <v>0.08427857366283302</v>
       </c>
       <c r="G28">
-        <v>0.01231099350488464</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.00795834340543395</v>
+      </c>
+      <c r="H28">
+        <v>0.01368454516206381</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02201492992374611</v>
+        <v>0.02273022012925251</v>
       </c>
       <c r="C29">
-        <v>0.0170413236371177</v>
+        <v>0.002118467563506826</v>
       </c>
       <c r="D29">
-        <v>0.0007283414084617283</v>
+        <v>0.005096561157816101</v>
       </c>
       <c r="E29">
-        <v>-0.05671200208594209</v>
+        <v>0.009849465674347848</v>
       </c>
       <c r="F29">
-        <v>-0.04558481162008113</v>
+        <v>-0.02341973814385843</v>
       </c>
       <c r="G29">
-        <v>-0.0649212455193264</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.039770435033563</v>
+      </c>
+      <c r="H29">
+        <v>0.01841825036986971</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.09102948172589423</v>
+        <v>0.05503294538017366</v>
       </c>
       <c r="C30">
-        <v>0.04955582910721001</v>
+        <v>-0.003845492378854594</v>
       </c>
       <c r="D30">
-        <v>-0.04199553064457849</v>
+        <v>0.0610642037759836</v>
       </c>
       <c r="E30">
-        <v>-0.08779572118643633</v>
+        <v>-0.03326543800157913</v>
       </c>
       <c r="F30">
-        <v>-0.04582125747909699</v>
+        <v>-0.06650353751530685</v>
       </c>
       <c r="G30">
-        <v>-0.04852272398399125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.06823786298719228</v>
+      </c>
+      <c r="H30">
+        <v>-0.03384726398740525</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06438254108008645</v>
+        <v>0.05552091526137661</v>
       </c>
       <c r="C31">
-        <v>0.01293499018509408</v>
+        <v>0.01436118254081966</v>
       </c>
       <c r="D31">
-        <v>-0.04848563697096925</v>
+        <v>0.02838650829785344</v>
       </c>
       <c r="E31">
-        <v>-0.03101454035391924</v>
+        <v>-0.008481015277280634</v>
       </c>
       <c r="F31">
-        <v>-0.03959956317217289</v>
+        <v>-0.01831429729778996</v>
       </c>
       <c r="G31">
-        <v>-0.07648774952628488</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.02449966950896791</v>
+      </c>
+      <c r="H31">
+        <v>0.01501566249732181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.0215025447961316</v>
+        <v>0.01464678285027144</v>
       </c>
       <c r="C32">
-        <v>0.02531383173057804</v>
+        <v>0.01586323600369597</v>
       </c>
       <c r="D32">
-        <v>-0.004941781799142439</v>
+        <v>-0.004636867421371132</v>
       </c>
       <c r="E32">
-        <v>-0.07895832755982092</v>
+        <v>0.0182917920778973</v>
       </c>
       <c r="F32">
-        <v>-0.05837063883750185</v>
+        <v>-0.04659817819753484</v>
       </c>
       <c r="G32">
-        <v>-0.0506509413232734</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.05843958298850373</v>
+      </c>
+      <c r="H32">
+        <v>-0.04238883043453745</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.05567968215273339</v>
+        <v>0.04063512376118612</v>
       </c>
       <c r="C33">
-        <v>-0.005092920994950714</v>
+        <v>0.0006950891332400509</v>
       </c>
       <c r="D33">
-        <v>-0.04378256482386227</v>
+        <v>0.03219856139673668</v>
       </c>
       <c r="E33">
-        <v>-0.06947488326172677</v>
+        <v>-0.02244172944443719</v>
       </c>
       <c r="F33">
-        <v>-0.08953960087675836</v>
+        <v>-0.008995543773775332</v>
       </c>
       <c r="G33">
-        <v>-0.0492919693579882</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.06509160753704758</v>
+      </c>
+      <c r="H33">
+        <v>-0.01503303022157952</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03365499125128003</v>
+        <v>0.02862145717461857</v>
       </c>
       <c r="C34">
-        <v>0.01231164525302856</v>
+        <v>0.01690459666561287</v>
       </c>
       <c r="D34">
-        <v>-0.01365203519214626</v>
+        <v>0.03164701500870514</v>
       </c>
       <c r="E34">
-        <v>-0.0480839845551501</v>
+        <v>0.006257035753844144</v>
       </c>
       <c r="F34">
-        <v>-0.03834441126753</v>
+        <v>-0.02048203128814224</v>
       </c>
       <c r="G34">
-        <v>-0.01938545032325911</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02896387261862004</v>
+      </c>
+      <c r="H34">
+        <v>-0.022963983087791</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.0141770924889395</v>
+        <v>0.02257273274184189</v>
       </c>
       <c r="C36">
-        <v>0.008585090027633182</v>
+        <v>-0.003091260516765587</v>
       </c>
       <c r="D36">
-        <v>-0.002698267359385194</v>
+        <v>-0.001756502078037915</v>
       </c>
       <c r="E36">
-        <v>-0.02970258407700159</v>
+        <v>0.001973767769800381</v>
       </c>
       <c r="F36">
-        <v>-0.02349452918581743</v>
+        <v>-0.007734261197053101</v>
       </c>
       <c r="G36">
-        <v>-0.03476613828299196</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.0211095819120571</v>
+      </c>
+      <c r="H36">
+        <v>0.0039091723051634</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0002352315402144756</v>
+        <v>0.02255097057567934</v>
       </c>
       <c r="C38">
-        <v>-0.006586069149377986</v>
+        <v>0.01653519604115732</v>
       </c>
       <c r="D38">
-        <v>0.01644640860908078</v>
+        <v>4.315495946968078e-05</v>
       </c>
       <c r="E38">
-        <v>0.001735532332720683</v>
+        <v>0.004847005297784687</v>
       </c>
       <c r="F38">
-        <v>-0.01861858842548422</v>
+        <v>-0.009033668402182877</v>
       </c>
       <c r="G38">
-        <v>0.008778232064286528</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.03010782898798849</v>
+      </c>
+      <c r="H38">
+        <v>-0.02016335311071545</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03978891410320211</v>
+        <v>0.02094539718906729</v>
       </c>
       <c r="C39">
-        <v>0.01673305895001026</v>
+        <v>0.0001391030002533104</v>
       </c>
       <c r="D39">
-        <v>-0.03473474858657911</v>
+        <v>0.07212455121121827</v>
       </c>
       <c r="E39">
-        <v>-0.0498657786798563</v>
+        <v>-0.001464280639008356</v>
       </c>
       <c r="F39">
-        <v>-0.04319938075322445</v>
+        <v>-0.03608770557826523</v>
       </c>
       <c r="G39">
-        <v>-0.01948438573182471</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.05768576071326162</v>
+      </c>
+      <c r="H39">
+        <v>-0.04848360058583037</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.03295800706223876</v>
+        <v>0.03505609948493755</v>
       </c>
       <c r="C40">
-        <v>0.04052073962441891</v>
+        <v>0.002092526745135921</v>
       </c>
       <c r="D40">
-        <v>-0.05663494346808377</v>
+        <v>0.01585675258609587</v>
       </c>
       <c r="E40">
-        <v>-0.03151900764272487</v>
+        <v>-0.02161415011517651</v>
       </c>
       <c r="F40">
-        <v>-0.0896728881168362</v>
+        <v>-0.03192438397692372</v>
       </c>
       <c r="G40">
-        <v>-0.04629305479083207</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.05280632886674999</v>
+      </c>
+      <c r="H40">
+        <v>-0.04565282801321274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0006575546411235901</v>
+        <v>0.01130078528010214</v>
       </c>
       <c r="C41">
-        <v>-0.00873739569532539</v>
+        <v>-0.0002905153407830011</v>
       </c>
       <c r="D41">
-        <v>-0.006332952132703138</v>
+        <v>-0.009582402802448566</v>
       </c>
       <c r="E41">
-        <v>-0.01778223286390047</v>
+        <v>-0.002281862271231094</v>
       </c>
       <c r="F41">
-        <v>-0.01115719204363258</v>
+        <v>0.003396810839722037</v>
       </c>
       <c r="G41">
-        <v>-0.05492420433004496</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.00973640967121127</v>
+      </c>
+      <c r="H41">
+        <v>0.0164127931047316</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.331685609100145</v>
+        <v>0.1658034541568432</v>
       </c>
       <c r="C42">
-        <v>-0.8976958094397025</v>
+        <v>-0.1117105980837278</v>
       </c>
       <c r="D42">
-        <v>-0.1590742083682505</v>
+        <v>0.4974000611349597</v>
       </c>
       <c r="E42">
-        <v>0.1586419405702107</v>
+        <v>-0.1386342244881637</v>
       </c>
       <c r="F42">
-        <v>0.0525209149659846</v>
+        <v>0.8147318225247933</v>
       </c>
       <c r="G42">
-        <v>-0.02546207096621275</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.1068354228326757</v>
+      </c>
+      <c r="H42">
+        <v>-0.01424102897562658</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.006144666142914503</v>
+        <v>0.011731461860722</v>
       </c>
       <c r="C43">
-        <v>-0.005752339307981905</v>
+        <v>-0.001519591271813064</v>
       </c>
       <c r="D43">
-        <v>-0.01031120632862179</v>
+        <v>-0.01322997012873169</v>
       </c>
       <c r="E43">
-        <v>-0.01971157998615811</v>
+        <v>-0.007948978113155543</v>
       </c>
       <c r="F43">
-        <v>-0.03102182523447929</v>
+        <v>0.009472184910887345</v>
       </c>
       <c r="G43">
-        <v>-0.04962557744970465</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.01850190942613417</v>
+      </c>
+      <c r="H43">
+        <v>0.01003257884636521</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02063397333964732</v>
+        <v>0.01670887983029137</v>
       </c>
       <c r="C44">
-        <v>-0.004306307759802967</v>
+        <v>0.0007243605534940815</v>
       </c>
       <c r="D44">
-        <v>-0.02492148383948156</v>
+        <v>0.0226767009825089</v>
       </c>
       <c r="E44">
-        <v>-0.06768777757388932</v>
+        <v>-0.0004231626896918244</v>
       </c>
       <c r="F44">
-        <v>-0.1663411149112425</v>
+        <v>0.0001633659046365607</v>
       </c>
       <c r="G44">
-        <v>-0.1613612904182705</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.09049996288022839</v>
+      </c>
+      <c r="H44">
+        <v>-0.01313341095485012</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02154268623342373</v>
+        <v>0.02277131715231762</v>
       </c>
       <c r="C46">
-        <v>0.01250416064943842</v>
+        <v>-0.001783081135872226</v>
       </c>
       <c r="D46">
-        <v>-0.01987406294849286</v>
+        <v>0.01079604190770487</v>
       </c>
       <c r="E46">
-        <v>-0.06790788026455225</v>
+        <v>-0.0006270625813578334</v>
       </c>
       <c r="F46">
-        <v>-0.06763757843072862</v>
+        <v>-0.02788332939668193</v>
       </c>
       <c r="G46">
-        <v>-0.05885988195198033</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.05843057897830838</v>
+      </c>
+      <c r="H46">
+        <v>0.01448568160500265</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09879444851254321</v>
+        <v>0.07746172197696019</v>
       </c>
       <c r="C47">
-        <v>0.02811057305570056</v>
+        <v>0.03011953233138341</v>
       </c>
       <c r="D47">
-        <v>-0.02756212896587616</v>
+        <v>0.03755925307910575</v>
       </c>
       <c r="E47">
-        <v>-0.03555131517074316</v>
+        <v>-0.0039091943595944</v>
       </c>
       <c r="F47">
-        <v>0.0006611707761905276</v>
+        <v>-0.0290862820049575</v>
       </c>
       <c r="G47">
-        <v>-0.08956196199508364</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.00951727126833822</v>
+      </c>
+      <c r="H47">
+        <v>0.03050010380412915</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01532904749202941</v>
+        <v>0.02283641724444335</v>
       </c>
       <c r="C48">
-        <v>0.00268988421646833</v>
+        <v>0.006726746426580189</v>
       </c>
       <c r="D48">
-        <v>-0.01647872578545879</v>
+        <v>0.004564520912373633</v>
       </c>
       <c r="E48">
-        <v>-0.03733724453656835</v>
+        <v>-0.002734468716659584</v>
       </c>
       <c r="F48">
-        <v>-0.03981898162618012</v>
+        <v>-0.01000590907208841</v>
       </c>
       <c r="G48">
-        <v>-0.01803288811154481</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02917287310134687</v>
+      </c>
+      <c r="H48">
+        <v>-0.0001646874732885926</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.09181592077773125</v>
+        <v>0.07280831565592788</v>
       </c>
       <c r="C50">
-        <v>0.01287548476525883</v>
+        <v>0.02571151630624661</v>
       </c>
       <c r="D50">
-        <v>-0.04057748809038899</v>
+        <v>0.04432297878488547</v>
       </c>
       <c r="E50">
-        <v>-0.05355683958728874</v>
+        <v>0.0105290696119062</v>
       </c>
       <c r="F50">
-        <v>-0.02738418557975192</v>
+        <v>-0.0238733945098121</v>
       </c>
       <c r="G50">
-        <v>-0.03569513238194272</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.02341952436159815</v>
+      </c>
+      <c r="H50">
+        <v>0.02672663696433242</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02197553903926188</v>
+        <v>0.02263443659993197</v>
       </c>
       <c r="C51">
-        <v>0.009923666655013793</v>
+        <v>0.0002088821537754695</v>
       </c>
       <c r="D51">
-        <v>-0.01977046526580875</v>
+        <v>-0.008744758013741669</v>
       </c>
       <c r="E51">
-        <v>-0.02397925183083812</v>
+        <v>-0.007263934424305768</v>
       </c>
       <c r="F51">
-        <v>-0.1409636454787633</v>
+        <v>0.005317646396047287</v>
       </c>
       <c r="G51">
-        <v>-0.05844491912785973</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.07616243778556682</v>
+      </c>
+      <c r="H51">
+        <v>-0.02288501338704552</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1045361285814305</v>
+        <v>0.09459978648337851</v>
       </c>
       <c r="C53">
-        <v>0.04304575214599055</v>
+        <v>0.03661049440873063</v>
       </c>
       <c r="D53">
-        <v>-0.04221139546452762</v>
+        <v>0.06978693128943105</v>
       </c>
       <c r="E53">
-        <v>-0.04416568930245215</v>
+        <v>0.0002504317867743864</v>
       </c>
       <c r="F53">
-        <v>0.05096830546741715</v>
+        <v>-0.06208933546169088</v>
       </c>
       <c r="G53">
-        <v>-0.02751990887009945</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.05493323244623652</v>
+      </c>
+      <c r="H53">
+        <v>0.0352791001442025</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01580152624607733</v>
+        <v>0.02541135754883042</v>
       </c>
       <c r="C54">
-        <v>0.02679590559679837</v>
+        <v>0.01241460912201822</v>
       </c>
       <c r="D54">
-        <v>-0.0005687048166268212</v>
+        <v>-0.01831545619317056</v>
       </c>
       <c r="E54">
-        <v>-0.03855924935705307</v>
+        <v>0.004834345340253769</v>
       </c>
       <c r="F54">
-        <v>-0.06019983226120927</v>
+        <v>-0.0120057526399116</v>
       </c>
       <c r="G54">
-        <v>-0.0753609864170426</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.0377723233672374</v>
+      </c>
+      <c r="H54">
+        <v>0.0149225399993638</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1015141006864209</v>
+        <v>0.08067336132227726</v>
       </c>
       <c r="C55">
-        <v>0.02964394989418948</v>
+        <v>0.03202319909443865</v>
       </c>
       <c r="D55">
-        <v>-0.005158196573421453</v>
+        <v>0.06663068942016299</v>
       </c>
       <c r="E55">
-        <v>-0.05260737491129132</v>
+        <v>0.01064671208445594</v>
       </c>
       <c r="F55">
-        <v>0.04484182418726048</v>
+        <v>-0.05100283293060563</v>
       </c>
       <c r="G55">
-        <v>-0.06519263580938105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03295506690227514</v>
+      </c>
+      <c r="H55">
+        <v>0.04562364112780506</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.147869593744251</v>
+        <v>0.1305232147518219</v>
       </c>
       <c r="C56">
-        <v>0.07660510500871608</v>
+        <v>0.05625961666694474</v>
       </c>
       <c r="D56">
-        <v>-0.03333769990022638</v>
+        <v>0.08939306317809094</v>
       </c>
       <c r="E56">
-        <v>-0.04956557834282305</v>
+        <v>0.003489200679970159</v>
       </c>
       <c r="F56">
-        <v>0.155299111810355</v>
+        <v>-0.08708079191825802</v>
       </c>
       <c r="G56">
-        <v>0.005998480031323485</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.09895158276071092</v>
+      </c>
+      <c r="H56">
+        <v>0.02736393578963751</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.0439370670755995</v>
+        <v>0.04369827792496863</v>
       </c>
       <c r="C57">
-        <v>0.01055928202934176</v>
+        <v>-0.008734728462553491</v>
       </c>
       <c r="D57">
-        <v>-0.03124459064348289</v>
+        <v>0.02092020216882589</v>
       </c>
       <c r="E57">
-        <v>-0.007231271489914136</v>
+        <v>-0.01083083103025572</v>
       </c>
       <c r="F57">
-        <v>-0.07687405714548083</v>
+        <v>-0.02185307675852453</v>
       </c>
       <c r="G57">
-        <v>-0.03647201257652644</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.06336883580420254</v>
+      </c>
+      <c r="H57">
+        <v>-0.01283963329047179</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1979352310161008</v>
+        <v>0.1460015185585958</v>
       </c>
       <c r="C58">
-        <v>0.01178397276557924</v>
+        <v>0.04019274294317204</v>
       </c>
       <c r="D58">
-        <v>-0.1239777963397102</v>
+        <v>0.1364131392078544</v>
       </c>
       <c r="E58">
-        <v>-0.2327631347260946</v>
+        <v>-0.1105887394755654</v>
       </c>
       <c r="F58">
-        <v>-0.2514964269602257</v>
+        <v>-0.01670629317116602</v>
       </c>
       <c r="G58">
-        <v>0.03289911539438621</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.6709467753893479</v>
+      </c>
+      <c r="H58">
+        <v>0.551123638191087</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.06986948168510004</v>
+        <v>0.1550060605340887</v>
       </c>
       <c r="C59">
-        <v>0.08379803462735974</v>
+        <v>0.04294311286275759</v>
       </c>
       <c r="D59">
-        <v>0.03814588189951528</v>
+        <v>-0.2142362561551844</v>
       </c>
       <c r="E59">
-        <v>0.1343713204686736</v>
+        <v>-0.03757615629891578</v>
       </c>
       <c r="F59">
-        <v>-0.09367916491266681</v>
+        <v>0.065858241331906</v>
       </c>
       <c r="G59">
-        <v>0.03343523164010252</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.01656650753328443</v>
+      </c>
+      <c r="H59">
+        <v>-0.01885847873789284</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1716245710804927</v>
+        <v>0.1764860548554544</v>
       </c>
       <c r="C60">
-        <v>0.04494581793563773</v>
+        <v>0.03831590293881949</v>
       </c>
       <c r="D60">
-        <v>-0.06264753796987409</v>
+        <v>0.01651854859728528</v>
       </c>
       <c r="E60">
-        <v>-0.04125087072446768</v>
+        <v>-0.05366993416908155</v>
       </c>
       <c r="F60">
-        <v>-0.1418078597637072</v>
+        <v>-0.04733512873454011</v>
       </c>
       <c r="G60">
-        <v>0.3343320949401467</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.1355644477957059</v>
+      </c>
+      <c r="H60">
+        <v>-0.3816297740546482</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02056134708133691</v>
+        <v>0.02261131546303724</v>
       </c>
       <c r="C61">
-        <v>0.003162080781492105</v>
+        <v>0.005928041323679705</v>
       </c>
       <c r="D61">
-        <v>-0.008666731995690628</v>
+        <v>0.04025348114622315</v>
       </c>
       <c r="E61">
-        <v>-0.02895065370448323</v>
+        <v>0.003341179977770828</v>
       </c>
       <c r="F61">
-        <v>-0.02030545256221289</v>
+        <v>-0.02525705207249844</v>
       </c>
       <c r="G61">
-        <v>-0.01750447123179478</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.0333526391835481</v>
+      </c>
+      <c r="H61">
+        <v>-0.03583488850705174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01633390387951451</v>
+        <v>0.01381014211819861</v>
       </c>
       <c r="C63">
-        <v>0.005689358598512847</v>
+        <v>-0.001813140202519222</v>
       </c>
       <c r="D63">
-        <v>-0.01436258343203409</v>
+        <v>0.01002934989359203</v>
       </c>
       <c r="E63">
-        <v>-0.04377019639887599</v>
+        <v>0.002717834992483918</v>
       </c>
       <c r="F63">
-        <v>-0.008291818292573135</v>
+        <v>-0.01808376365978959</v>
       </c>
       <c r="G63">
-        <v>-0.0444385560890171</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.0163106751781129</v>
+      </c>
+      <c r="H63">
+        <v>0.01360967856882102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03968455608398319</v>
+        <v>0.04393675806681622</v>
       </c>
       <c r="C64">
-        <v>0.0215096346574557</v>
+        <v>0.01099751738250386</v>
       </c>
       <c r="D64">
-        <v>0.01807890167377726</v>
+        <v>0.0354336656193361</v>
       </c>
       <c r="E64">
-        <v>-0.04118270350887542</v>
+        <v>0.01027392167438295</v>
       </c>
       <c r="F64">
-        <v>-0.02342295535088237</v>
+        <v>-0.02140501482533201</v>
       </c>
       <c r="G64">
-        <v>-0.06599473003281336</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.02280575136193125</v>
+      </c>
+      <c r="H64">
+        <v>-0.02584907969864391</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.01348172561952296</v>
+        <v>0.02877953056319395</v>
       </c>
       <c r="C65">
-        <v>-0.00500931546128606</v>
+        <v>-0.005715826617847164</v>
       </c>
       <c r="D65">
-        <v>-0.01359364569501851</v>
+        <v>0.05527196312017703</v>
       </c>
       <c r="E65">
-        <v>-0.02046059134884031</v>
+        <v>0.00842635611401903</v>
       </c>
       <c r="F65">
-        <v>-0.008214354611526</v>
+        <v>-0.04033564796256851</v>
       </c>
       <c r="G65">
-        <v>0.007427532091575263</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.005680044424695036</v>
+      </c>
+      <c r="H65">
+        <v>-0.05530668373528572</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03959336126770193</v>
+        <v>0.02860397446457944</v>
       </c>
       <c r="C66">
-        <v>0.0191216881065692</v>
+        <v>0.005205013170488351</v>
       </c>
       <c r="D66">
-        <v>-0.0278612221255984</v>
+        <v>0.08198799778648434</v>
       </c>
       <c r="E66">
-        <v>-0.04999235125110911</v>
+        <v>-0.005846449656776169</v>
       </c>
       <c r="F66">
-        <v>-0.03939659363960079</v>
+        <v>-0.05415637084329962</v>
       </c>
       <c r="G66">
-        <v>-0.007148062132325692</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.04871944529477604</v>
+      </c>
+      <c r="H66">
+        <v>-0.05742774899966849</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01938747202979063</v>
+        <v>0.04442744125300582</v>
       </c>
       <c r="C67">
-        <v>-0.0001224151899102459</v>
+        <v>0.02034214311172724</v>
       </c>
       <c r="D67">
-        <v>0.01732385655524595</v>
+        <v>-0.004945949225959883</v>
       </c>
       <c r="E67">
-        <v>0.02004067500072965</v>
+        <v>0.001835501057792508</v>
       </c>
       <c r="F67">
-        <v>-0.02171646791082642</v>
+        <v>-0.01146649446721336</v>
       </c>
       <c r="G67">
-        <v>0.01152265333791758</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.01854650904995966</v>
+      </c>
+      <c r="H67">
+        <v>-0.0314147285887139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.08157011152279565</v>
+        <v>0.1549272612975507</v>
       </c>
       <c r="C68">
-        <v>0.06309074451526098</v>
+        <v>0.02117523398204477</v>
       </c>
       <c r="D68">
-        <v>0.05370707636967023</v>
+        <v>-0.2020984574082255</v>
       </c>
       <c r="E68">
-        <v>0.1711291248873927</v>
+        <v>-0.03339506690564996</v>
       </c>
       <c r="F68">
-        <v>-0.07210680485179329</v>
+        <v>0.09108852033386419</v>
       </c>
       <c r="G68">
-        <v>0.06568343277873165</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01197049967300616</v>
+      </c>
+      <c r="H68">
+        <v>0.04144513490843017</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.0727438106225321</v>
+        <v>0.061359948659507</v>
       </c>
       <c r="C69">
-        <v>0.02575278056579651</v>
+        <v>0.02829078220675998</v>
       </c>
       <c r="D69">
-        <v>-0.02737648853425283</v>
+        <v>0.03517309177165519</v>
       </c>
       <c r="E69">
-        <v>-0.0149314087579918</v>
+        <v>-0.004701944815122105</v>
       </c>
       <c r="F69">
-        <v>-0.009958932095885564</v>
+        <v>-0.02818963824852991</v>
       </c>
       <c r="G69">
-        <v>-0.07704056389277669</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.0001468865933480468</v>
+      </c>
+      <c r="H69">
+        <v>0.009341721478698821</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.09674569316513165</v>
+        <v>0.146907998129912</v>
       </c>
       <c r="C71">
-        <v>0.06560059870622695</v>
+        <v>0.02891740841659035</v>
       </c>
       <c r="D71">
-        <v>0.03427808706829933</v>
+        <v>-0.1872472290862972</v>
       </c>
       <c r="E71">
-        <v>0.2101611406658442</v>
+        <v>-0.03303328544961501</v>
       </c>
       <c r="F71">
-        <v>-0.08686880198715879</v>
+        <v>0.09474235825403347</v>
       </c>
       <c r="G71">
-        <v>0.03316114467566583</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01021148496379734</v>
+      </c>
+      <c r="H71">
+        <v>0.02488317886965604</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1137918436512859</v>
+        <v>0.09102751857963809</v>
       </c>
       <c r="C72">
-        <v>0.08517693975935682</v>
+        <v>0.0420889064723449</v>
       </c>
       <c r="D72">
-        <v>-0.02066782567765262</v>
+        <v>0.0714159803514138</v>
       </c>
       <c r="E72">
-        <v>-0.07608173219545825</v>
+        <v>-0.005649067467007556</v>
       </c>
       <c r="F72">
-        <v>-0.08891859963602886</v>
+        <v>-0.09678955682560154</v>
       </c>
       <c r="G72">
-        <v>0.1080844279684783</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.1020039287141446</v>
+      </c>
+      <c r="H72">
+        <v>-0.1501040200152859</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2526638942340509</v>
+        <v>0.2411671735101054</v>
       </c>
       <c r="C73">
-        <v>0.05816679632142033</v>
+        <v>0.0476635236867507</v>
       </c>
       <c r="D73">
-        <v>-0.05386062240886133</v>
+        <v>0.06763014990689686</v>
       </c>
       <c r="E73">
-        <v>0.004914627587413866</v>
+        <v>-0.07923361542773345</v>
       </c>
       <c r="F73">
-        <v>-0.2264335478971324</v>
+        <v>-0.05578130542049308</v>
       </c>
       <c r="G73">
-        <v>0.4845911682904211</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1840517326752771</v>
+      </c>
+      <c r="H73">
+        <v>-0.5055673118515863</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1305398951509976</v>
+        <v>0.1187982970739876</v>
       </c>
       <c r="C74">
-        <v>0.03908377643807189</v>
+        <v>0.05077685626165884</v>
       </c>
       <c r="D74">
-        <v>-0.03397743425512756</v>
+        <v>0.09112411431261466</v>
       </c>
       <c r="E74">
-        <v>-0.01810410390201373</v>
+        <v>-0.003172291636548332</v>
       </c>
       <c r="F74">
-        <v>0.09428894892331514</v>
+        <v>-0.07189065282527178</v>
       </c>
       <c r="G74">
-        <v>0.02778445291411313</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.07453403981215447</v>
+      </c>
+      <c r="H74">
+        <v>0.0104593742317557</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2223681041135901</v>
+        <v>0.2285929448282839</v>
       </c>
       <c r="C75">
-        <v>0.1155190365942583</v>
+        <v>0.1000372641712524</v>
       </c>
       <c r="D75">
-        <v>-0.08267532401039138</v>
+        <v>0.1441470908302584</v>
       </c>
       <c r="E75">
-        <v>-0.06824496327377154</v>
+        <v>-0.01960631185493444</v>
       </c>
       <c r="F75">
-        <v>0.1679291068517773</v>
+        <v>-0.1474794498607219</v>
       </c>
       <c r="G75">
-        <v>-0.04898127044842472</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1580363650674206</v>
+      </c>
+      <c r="H75">
+        <v>0.08953439583783711</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2735208191303457</v>
+        <v>0.2062547199760319</v>
       </c>
       <c r="C76">
-        <v>0.1241555656254006</v>
+        <v>0.09495912377211993</v>
       </c>
       <c r="D76">
-        <v>-0.01902937388707398</v>
+        <v>0.1341301119347429</v>
       </c>
       <c r="E76">
-        <v>-0.04316048772565879</v>
+        <v>0.02254663967965296</v>
       </c>
       <c r="F76">
-        <v>0.2026589855593426</v>
+        <v>-0.1470135785868402</v>
       </c>
       <c r="G76">
-        <v>-0.05461782583606817</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1710535839864615</v>
+      </c>
+      <c r="H76">
+        <v>0.09256863721055736</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1426479241430414</v>
+        <v>0.0735904823379733</v>
       </c>
       <c r="C77">
-        <v>-0.03154303260563746</v>
+        <v>0.008529199924946012</v>
       </c>
       <c r="D77">
-        <v>-0.0607880679944091</v>
+        <v>0.0759125887568711</v>
       </c>
       <c r="E77">
-        <v>-0.1021926484892063</v>
+        <v>-0.01151668520366885</v>
       </c>
       <c r="F77">
-        <v>-0.2199652258558654</v>
+        <v>0.007169043623815989</v>
       </c>
       <c r="G77">
-        <v>-0.1418640363104728</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.1317242685869448</v>
+      </c>
+      <c r="H77">
+        <v>0.06981568865971947</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.0557688123400597</v>
+        <v>0.03717707621097152</v>
       </c>
       <c r="C78">
-        <v>0.01061074382911223</v>
+        <v>0.009720657469686408</v>
       </c>
       <c r="D78">
-        <v>-0.03840050752442777</v>
+        <v>0.05977548821852992</v>
       </c>
       <c r="E78">
-        <v>-0.1028585807652793</v>
+        <v>0.002853789115958285</v>
       </c>
       <c r="F78">
-        <v>-0.03868249545863182</v>
+        <v>-0.04420784654697062</v>
       </c>
       <c r="G78">
-        <v>-0.05586494932620256</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.06071055248388004</v>
+      </c>
+      <c r="H78">
+        <v>-0.02607841276409793</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.2115523360756006</v>
+        <v>0.1625654165837697</v>
       </c>
       <c r="C80">
-        <v>-0.1406070119276765</v>
+        <v>0.04706017493619447</v>
       </c>
       <c r="D80">
-        <v>0.9166488878811064</v>
+        <v>0.01627611140143782</v>
       </c>
       <c r="E80">
-        <v>-0.2751659939083857</v>
+        <v>0.9614591292780611</v>
       </c>
       <c r="F80">
-        <v>0.004032658736011916</v>
+        <v>0.1464424571206248</v>
       </c>
       <c r="G80">
-        <v>0.01837970337085156</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.08997933556626726</v>
+      </c>
+      <c r="H80">
+        <v>-0.008346792057811296</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1608996601522524</v>
+        <v>0.1504014875330837</v>
       </c>
       <c r="C81">
-        <v>0.08802320466775121</v>
+        <v>0.06517166693632</v>
       </c>
       <c r="D81">
-        <v>-0.02820677664405428</v>
+        <v>0.09014976240769036</v>
       </c>
       <c r="E81">
-        <v>-0.04909390894381111</v>
+        <v>0.004621270922884199</v>
       </c>
       <c r="F81">
-        <v>0.1710118689114388</v>
+        <v>-0.09628808735374692</v>
       </c>
       <c r="G81">
-        <v>-0.01576122176686422</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.104680979706863</v>
+      </c>
+      <c r="H81">
+        <v>0.06664820071714406</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.05274777939516932</v>
+        <v>0.03686292339478983</v>
       </c>
       <c r="C83">
-        <v>-0.009832030029344277</v>
+        <v>0.006681208841453826</v>
       </c>
       <c r="D83">
-        <v>-0.03911881605321035</v>
+        <v>0.02261737945479421</v>
       </c>
       <c r="E83">
-        <v>-0.02785351117813508</v>
+        <v>-0.01296393898643314</v>
       </c>
       <c r="F83">
-        <v>-0.05996950058239005</v>
+        <v>-0.01038832339921816</v>
       </c>
       <c r="G83">
-        <v>-0.05004261593280922</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05790017080050533</v>
+      </c>
+      <c r="H83">
+        <v>-0.01617624816080562</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2417158132987597</v>
+        <v>0.2150193233311659</v>
       </c>
       <c r="C85">
-        <v>0.1040283793058977</v>
+        <v>0.08204378744900681</v>
       </c>
       <c r="D85">
-        <v>-0.05606514813003202</v>
+        <v>0.1475566105587806</v>
       </c>
       <c r="E85">
-        <v>-0.04282137693620588</v>
+        <v>-0.01214195096701957</v>
       </c>
       <c r="F85">
-        <v>0.1838802923657947</v>
+        <v>-0.1286437753780207</v>
       </c>
       <c r="G85">
-        <v>-0.07372032117510863</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.168771691198585</v>
+      </c>
+      <c r="H85">
+        <v>0.05927354293767553</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.001109472258147058</v>
+        <v>0.01645936901303586</v>
       </c>
       <c r="C86">
-        <v>-0.01121205353149412</v>
+        <v>-0.001376534654556915</v>
       </c>
       <c r="D86">
-        <v>0.0008701315781753789</v>
+        <v>0.007370672292269909</v>
       </c>
       <c r="E86">
-        <v>-0.049493942307127</v>
+        <v>-0.0108292523769084</v>
       </c>
       <c r="F86">
-        <v>-0.06430110593121643</v>
+        <v>0.002766450488523858</v>
       </c>
       <c r="G86">
-        <v>-0.01991652746305343</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.08858807889071336</v>
+      </c>
+      <c r="H86">
+        <v>-0.03624913158867415</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03274592186910863</v>
+        <v>0.02899496522862485</v>
       </c>
       <c r="C87">
-        <v>0.005054753398102846</v>
+        <v>0.00281373972716649</v>
       </c>
       <c r="D87">
-        <v>-0.0131603457462572</v>
+        <v>0.02940685264376416</v>
       </c>
       <c r="E87">
-        <v>-0.03366292043987013</v>
+        <v>-0.001810697846247208</v>
       </c>
       <c r="F87">
-        <v>-0.0831486288357484</v>
+        <v>-0.02092596330162128</v>
       </c>
       <c r="G87">
-        <v>-0.001743527015804794</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.09615422655326024</v>
+      </c>
+      <c r="H87">
+        <v>-0.02571317246829742</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01062177188802953</v>
+        <v>0.03787843472715178</v>
       </c>
       <c r="C88">
-        <v>0.01534405124854477</v>
+        <v>-0.01052193303513286</v>
       </c>
       <c r="D88">
-        <v>0.02041675631827258</v>
+        <v>0.0004868499507737889</v>
       </c>
       <c r="E88">
-        <v>0.0007232353829714597</v>
+        <v>0.009188738288918183</v>
       </c>
       <c r="F88">
-        <v>-0.02726096952455755</v>
+        <v>-0.01284130661870805</v>
       </c>
       <c r="G88">
-        <v>-0.0670580878841511</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.004320233097512791</v>
+      </c>
+      <c r="H88">
+        <v>-0.008922315542603441</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1177843443260041</v>
+        <v>0.2404881963720942</v>
       </c>
       <c r="C89">
-        <v>0.09483812329200182</v>
+        <v>0.04408256746213758</v>
       </c>
       <c r="D89">
-        <v>0.04743684835229339</v>
+        <v>-0.3251712993614954</v>
       </c>
       <c r="E89">
-        <v>0.2754901497616474</v>
+        <v>-0.07389409526161921</v>
       </c>
       <c r="F89">
-        <v>-0.1417075721807362</v>
+        <v>0.1241731490327822</v>
       </c>
       <c r="G89">
-        <v>-0.006826436878944803</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.004681848884505722</v>
+      </c>
+      <c r="H89">
+        <v>0.03538435346587832</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1100118922610406</v>
+        <v>0.1937004224304296</v>
       </c>
       <c r="C90">
-        <v>0.09234397880143971</v>
+        <v>0.03645133778299842</v>
       </c>
       <c r="D90">
-        <v>0.09249377221597012</v>
+        <v>-0.2856046095543109</v>
       </c>
       <c r="E90">
-        <v>0.2919839423242234</v>
+        <v>-0.04863986543497511</v>
       </c>
       <c r="F90">
-        <v>-0.1031303216045358</v>
+        <v>0.1276636849661904</v>
       </c>
       <c r="G90">
-        <v>0.01377427411896807</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.04312162155471354</v>
+      </c>
+      <c r="H90">
+        <v>0.04565221159926131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2926481607104725</v>
+        <v>0.2360176838882648</v>
       </c>
       <c r="C91">
-        <v>0.09265930409574387</v>
+        <v>0.1011234065695</v>
       </c>
       <c r="D91">
-        <v>-0.07185056817127113</v>
+        <v>0.1430372932745307</v>
       </c>
       <c r="E91">
-        <v>-0.02390297004278464</v>
+        <v>-0.01198066050097753</v>
       </c>
       <c r="F91">
-        <v>0.2587497822239742</v>
+        <v>-0.1353246648629252</v>
       </c>
       <c r="G91">
-        <v>-0.0322971328105473</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.2025655420856082</v>
+      </c>
+      <c r="H91">
+        <v>0.1209332543020551</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1816964025946544</v>
+        <v>0.2455826655654897</v>
       </c>
       <c r="C92">
-        <v>0.1016579140218704</v>
+        <v>0.09781669654314555</v>
       </c>
       <c r="D92">
-        <v>0.1198016629205206</v>
+        <v>-0.2264286099703565</v>
       </c>
       <c r="E92">
-        <v>0.4559727996814286</v>
+        <v>-0.03015712342172201</v>
       </c>
       <c r="F92">
-        <v>-0.05153870866772779</v>
+        <v>0.1010631914353809</v>
       </c>
       <c r="G92">
-        <v>-0.4809062952473097</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.0486046115801084</v>
+      </c>
+      <c r="H92">
+        <v>0.1460666479406514</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1153281153208009</v>
+        <v>0.2171112124035342</v>
       </c>
       <c r="C93">
-        <v>0.07625436358556054</v>
+        <v>0.04685698531956169</v>
       </c>
       <c r="D93">
-        <v>0.1071822704775406</v>
+        <v>-0.3058708556829494</v>
       </c>
       <c r="E93">
-        <v>0.4026598632235687</v>
+        <v>-0.06332337718511739</v>
       </c>
       <c r="F93">
-        <v>-0.06885654766729686</v>
+        <v>0.1634735246835108</v>
       </c>
       <c r="G93">
-        <v>0.08036982429546057</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.05509371358170493</v>
+      </c>
+      <c r="H93">
+        <v>-0.01191562809026969</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2707404518257456</v>
+        <v>0.2538239800946109</v>
       </c>
       <c r="C94">
-        <v>0.140362944281348</v>
+        <v>0.08924313245157825</v>
       </c>
       <c r="D94">
-        <v>-0.05452159145034664</v>
+        <v>0.1275529324816677</v>
       </c>
       <c r="E94">
-        <v>-0.04084152201912239</v>
+        <v>-0.02928012944096322</v>
       </c>
       <c r="F94">
-        <v>0.3161313549781903</v>
+        <v>-0.161659615073196</v>
       </c>
       <c r="G94">
-        <v>0.03090115251129534</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2120338789371592</v>
+      </c>
+      <c r="H94">
+        <v>0.1324684886410259</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.07968630996889685</v>
+        <v>0.06182215330869362</v>
       </c>
       <c r="C95">
-        <v>-0.0006925225113758908</v>
+        <v>0.03021603212440249</v>
       </c>
       <c r="D95">
-        <v>-0.08396058717787677</v>
+        <v>0.09111107993851045</v>
       </c>
       <c r="E95">
-        <v>-0.08260247012363119</v>
+        <v>-0.0722192334304379</v>
       </c>
       <c r="F95">
-        <v>-0.02711241777315351</v>
+        <v>-0.02477962725689973</v>
       </c>
       <c r="G95">
-        <v>-0.2254100628344528</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.06125914735034311</v>
+      </c>
+      <c r="H95">
+        <v>-0.004687745649137275</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1906931127865417</v>
+        <v>0.1822866713442751</v>
       </c>
       <c r="C98">
-        <v>0.02864078456241919</v>
+        <v>0.06839440864528597</v>
       </c>
       <c r="D98">
-        <v>-0.03299021930180253</v>
+        <v>0.04233298107751628</v>
       </c>
       <c r="E98">
-        <v>0.04104211394789999</v>
+        <v>-0.05190519675328325</v>
       </c>
       <c r="F98">
-        <v>-0.1050111178635735</v>
+        <v>-0.01863560819574111</v>
       </c>
       <c r="G98">
-        <v>0.3451972074079664</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1550637474302043</v>
+      </c>
+      <c r="H98">
+        <v>-0.3658185521713803</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.005759886037801987</v>
+        <v>0.01589721595611644</v>
       </c>
       <c r="C101">
-        <v>0.01959234352603405</v>
+        <v>0.0001239531829708133</v>
       </c>
       <c r="D101">
-        <v>-0.01520081182818537</v>
+        <v>0.005231076184120517</v>
       </c>
       <c r="E101">
-        <v>-0.1236945041563907</v>
+        <v>0.005208099795167395</v>
       </c>
       <c r="F101">
-        <v>-0.1400947081440018</v>
+        <v>-0.02894801294045504</v>
       </c>
       <c r="G101">
-        <v>-0.1262944641320319</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1027909176046952</v>
+      </c>
+      <c r="H101">
+        <v>0.07109169989652941</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.09841831367996948</v>
+        <v>0.1031476363630496</v>
       </c>
       <c r="C102">
-        <v>0.02767648888885984</v>
+        <v>0.03170915139046833</v>
       </c>
       <c r="D102">
-        <v>-0.02304689960244491</v>
+        <v>0.07417136669147549</v>
       </c>
       <c r="E102">
-        <v>-0.05703680582320008</v>
+        <v>0.001081946822486103</v>
       </c>
       <c r="F102">
-        <v>0.1330468705215946</v>
+        <v>-0.06351620489867602</v>
       </c>
       <c r="G102">
-        <v>-0.0696594633780645</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.09457519734569057</v>
+      </c>
+      <c r="H102">
+        <v>0.05217532923657903</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02651873544262796</v>
+        <v>0.01995902231206191</v>
       </c>
       <c r="C103">
-        <v>0.0123433047067161</v>
+        <v>0.007355302243794226</v>
       </c>
       <c r="D103">
-        <v>-0.01296374257837857</v>
+        <v>0.01626203668805763</v>
       </c>
       <c r="E103">
-        <v>-0.005362174458244506</v>
+        <v>0.006751041796611754</v>
       </c>
       <c r="F103">
-        <v>0.01439154792382422</v>
+        <v>-0.01769070947952374</v>
       </c>
       <c r="G103">
-        <v>-0.01964377175360301</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.00593752794680824</v>
+      </c>
+      <c r="H103">
+        <v>0.01137136852671738</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.2714761438690558</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9427301679258759</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.03749578923969941</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02752274152152755</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1564629238810409</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.0357035280651277</v>
+      </c>
+      <c r="H104">
+        <v>0.03050921309728046</v>
       </c>
     </row>
   </sheetData>
